--- a/watch_eagle/ro/ro.xlsx
+++ b/watch_eagle/ro/ro.xlsx
@@ -548,7 +548,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>negru, argintiu, aur roz, auriu, albastru, gri închis</v>
+        <v>negru, argintiu</v>
       </c>
     </row>
     <row r="35">
@@ -921,28 +921,28 @@
 				&lt;h2&gt;&lt;span data-translate="27"&gt;Caracteristici&lt;/span&gt;&lt;br&gt;
 					&lt;b class="offer"&gt;&lt;span data-translate="28"&gt;eagle watch  &lt;/span&gt;&lt;/b&gt;&lt;/h2&gt;
 				&lt;br&gt;
-				&lt;img src="img/pic_4.png" alt class="no-pad"&gt;
+				&lt;img src="img/pic_4.png" style="max-width: 2.9rem; display: block; margin: 0 auto;" alt class="no-pad"&gt;
 				&lt;br&gt;
 				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="29"&gt;Mecanism:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="30"&gt;mecanic cu mecanism auto&lt;/span&gt;&lt;/p&gt;
 				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="31"&gt;Particularități:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="32"&gt;capac din spate transparent&lt;/span&gt;&lt;/p&gt;
-				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="33"&gt;Culoare:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="34"&gt;negru, argintiu, aur roz, auriu, albastru, gri închis&lt;/span&gt;&lt;/p&gt;
+				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="33"&gt;Culoare:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="34"&gt;negru, argintiu&lt;/span&gt;&lt;/p&gt;
 				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="35"&gt;Nivel de protecție:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="36"&gt;1АТМ&lt;/span&gt;&lt;/p&gt;
 				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="37"&gt;Sticla:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="38"&gt;mineral&lt;/span&gt;&lt;/p&gt;
 				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="39"&gt;Săgeți:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="40"&gt;luminescente&lt;/span&gt;&lt;/p&gt;
 				&lt;br&gt;
-				&lt;img src="img/pic_5.png" alt&gt;
+				&lt;img src="img/pic_5.png" style="max-width: 2.9rem; display: block; margin: 0 auto;" alt&gt;
 				&lt;h3&gt;&lt;span data-translate="41"&gt;CADRAN&lt;/span&gt;&lt;/h3&gt;
 				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="42"&gt;Diametru:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="43"&gt;43 mm&lt;/span&gt;&lt;/p&gt;
 				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="44"&gt;Grosime:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="45"&gt;13 mm&lt;/span&gt;&lt;/p&gt;
 				&lt;h3&gt;&lt;span data-translate="46"&gt;CUREA&lt;/span&gt;&lt;/h3&gt;
 				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="47"&gt;Lungime:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="48"&gt;240 mm&lt;/span&gt;&lt;/p&gt;
-				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="49"&gt;Lățime:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="50"&gt;20 mm&lt;/span&gt;&lt;/p&gt;
-				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="51"&gt;Ma</v>
+				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="49"&gt;Lățime:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="50"&gt;20</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str" xml:space="preserve">
-        <v xml:space="preserve">terial:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="52"&gt;oțel inoxidabil&lt;/span&gt;&lt;/p&gt;
+        <v xml:space="preserve"> mm&lt;/span&gt;&lt;/p&gt;
+				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="51"&gt;Material:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="52"&gt;oțel inoxidabil&lt;/span&gt;&lt;/p&gt;
 			&lt;/div&gt;
 		&lt;/section&gt;
 		&lt;section class="sect3 video"&gt;
@@ -993,14 +993,14 @@
 					&lt;/div&gt;
 					&lt;div class="sect5__item"&gt;
 						&lt;img src="img/icon_2.svg" alt&gt;
-						&lt;p&gt;&lt;span data-translate="64"&gt;Managerul nostru vă va telefona pentru a confirma comanda&lt;/span&gt;&lt;/p&gt;
-					&lt;/div&gt;
-			</v>
+						&lt;p&gt;&lt;span data-translate="64"&gt;Mana</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">		&lt;div class="sect5__item"&gt;
+        <v xml:space="preserve">gerul nostru vă va telefona pentru a confirma comanda&lt;/span&gt;&lt;/p&gt;
+					&lt;/div&gt;
+					&lt;div class="sect5__item"&gt;
 						&lt;img src="img/icon_3.svg" alt&gt;
 						&lt;p&gt;&lt;span data-translate="65"&gt;Livrare prin curier timp de 3-7 zile&lt;/span&gt;&lt;/p&gt;
 					&lt;/div&gt;
